--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_2.xlsx
@@ -482,59 +482,59 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4806054348123191</v>
+        <v>0.4991499343278779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6184660949586088</v>
+        <v>0.797005131457062</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2013287354187601</v>
+        <v>0.9357095115723514</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2163459935761096</v>
+        <v>0.9098925090729403</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5748167634010315</v>
+        <v>0.5542934536933899</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2240885347127914</v>
+        <v>0.1713772863149643</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7845578193664551</v>
+        <v>0.09664588421583176</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4878389835357666</v>
+        <v>0.1362096071243286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_7</t>
+          <t>model_5_2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4966362649737683</v>
+        <v>0.5178212898211507</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.151493057230074</v>
+        <v>0.7937577560265511</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2231503237332836</v>
+        <v>0.9331054203881135</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.457153089576015</v>
+        <v>0.9077139313395471</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5570753216743469</v>
+        <v>0.5336297750473022</v>
       </c>
       <c r="G3" t="n">
-        <v>2.438320875167847</v>
+        <v>0.1741188615560532</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5073410868644714</v>
+        <v>0.1005605310201645</v>
       </c>
       <c r="I3" t="n">
-        <v>1.529622912406921</v>
+        <v>0.1395028084516525</v>
       </c>
     </row>
     <row r="4">
@@ -544,90 +544,90 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4981155466374878</v>
+        <v>0.5337416299968523</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.468678767931099</v>
+        <v>0.7860456471418314</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4220444902237137</v>
+        <v>0.9276256782757901</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.017907376396942</v>
+        <v>0.9028693633892489</v>
       </c>
       <c r="F4" t="n">
-        <v>0.555438220500946</v>
+        <v>0.516010582447052</v>
       </c>
       <c r="G4" t="n">
-        <v>2.037279605865479</v>
+        <v>0.1806297898292542</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3774483203887939</v>
+        <v>0.1087980568408966</v>
       </c>
       <c r="I4" t="n">
-        <v>1.256184458732605</v>
+        <v>0.1468260288238525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_1</t>
+          <t>model_5_2_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4986685066681809</v>
+        <v>0.5488227542589565</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.391208049386061</v>
+        <v>0.7774477560253389</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4055018823355102</v>
+        <v>0.9244183781006869</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9873732554522219</v>
+        <v>0.8988252579480505</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5548262000083923</v>
+        <v>0.4993202686309814</v>
       </c>
       <c r="G5" t="n">
-        <v>1.991778016090393</v>
+        <v>0.1878884881734848</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3882518410682678</v>
+        <v>0.1136194914579391</v>
       </c>
       <c r="I5" t="n">
-        <v>1.237176299095154</v>
+        <v>0.1529392451047897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_3</t>
+          <t>model_5_2_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5047301298820381</v>
+        <v>0.5622085774363264</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.877902459378046</v>
+        <v>0.7649178027755622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5337419357104647</v>
+        <v>0.917052963310525</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.167162804189859</v>
+        <v>0.8916742955123218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5481178164482117</v>
+        <v>0.4845061302185059</v>
       </c>
       <c r="G6" t="n">
-        <v>2.277631044387817</v>
+        <v>0.1984668374061584</v>
       </c>
       <c r="H6" t="n">
-        <v>0.304501473903656</v>
+        <v>0.1246916875243187</v>
       </c>
       <c r="I6" t="n">
-        <v>1.349098682403564</v>
+        <v>0.1637488603591919</v>
       </c>
     </row>
     <row r="7">
@@ -637,338 +637,338 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5285201331253377</v>
+        <v>0.5750582138444471</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.684091108313499</v>
+        <v>0.7509115834815717</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5048451951294745</v>
+        <v>0.9128310659669285</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.084624085169813</v>
+        <v>0.8855572272658466</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5217892527580261</v>
+        <v>0.4702853858470917</v>
       </c>
       <c r="G7" t="n">
-        <v>2.163798570632935</v>
+        <v>0.2102915197610855</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3233732283115387</v>
+        <v>0.1310383379459381</v>
       </c>
       <c r="I7" t="n">
-        <v>1.297716736793518</v>
+        <v>0.1729956716299057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_4</t>
+          <t>model_5_2_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5313310732423806</v>
+        <v>0.6088663440977484</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.633674539111322</v>
+        <v>0.700899973931143</v>
       </c>
       <c r="D8" t="n">
-        <v>0.520881344009673</v>
+        <v>0.8992571866614022</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.051523514263089</v>
+        <v>0.8644174452489104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5186783671379089</v>
+        <v>0.4328697025775909</v>
       </c>
       <c r="G8" t="n">
-        <v>2.134187459945679</v>
+        <v>0.2525135278701782</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3129004240036011</v>
+        <v>0.1514435261487961</v>
       </c>
       <c r="I8" t="n">
-        <v>1.277111053466797</v>
+        <v>0.204951286315918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_20</t>
+          <t>model_5_2_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5385226400981455</v>
+        <v>0.6191532532063224</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.854192708528198</v>
+        <v>0.6799147706495713</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09355356356847611</v>
+        <v>0.8939311660755833</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.465009199675315</v>
+        <v>0.8557200228616825</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5107194185256958</v>
+        <v>0.4214851260185242</v>
       </c>
       <c r="G9" t="n">
-        <v>2.263705492019653</v>
+        <v>0.2702301740646362</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7141725420951843</v>
+        <v>0.159449964761734</v>
       </c>
       <c r="I9" t="n">
-        <v>1.534513592720032</v>
+        <v>0.2180985957384109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_21</t>
+          <t>model_5_2_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5400510317617145</v>
+        <v>0.6289451754033903</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.818950161652095</v>
+        <v>0.6616958747432553</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1302874693795419</v>
+        <v>0.8885894509962513</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.465544315852755</v>
+        <v>0.8478330464993649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5090279579162598</v>
+        <v>0.410648375749588</v>
       </c>
       <c r="G10" t="n">
-        <v>2.243006467819214</v>
+        <v>0.2856113612651825</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7381625175476074</v>
+        <v>0.1674799919128418</v>
       </c>
       <c r="I10" t="n">
-        <v>1.534846544265747</v>
+        <v>0.2300208359956741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_19</t>
+          <t>model_5_2_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5400799403221375</v>
+        <v>0.6372357319807127</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.875071557243007</v>
+        <v>0.6373264614484152</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.034319375443016</v>
+        <v>0.8800418984221485</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.446195240449731</v>
+        <v>0.8366275145055481</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5089960098266602</v>
+        <v>0.4014731049537659</v>
       </c>
       <c r="G11" t="n">
-        <v>2.275968313217163</v>
+        <v>0.3061851263046265</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6754881143569946</v>
+        <v>0.1803292632102966</v>
       </c>
       <c r="I11" t="n">
-        <v>1.522801399230957</v>
+        <v>0.2469594925642014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_18</t>
+          <t>model_5_2_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5419056334141263</v>
+        <v>0.6465544961375331</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.898549654264399</v>
+        <v>0.6076505061743377</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03269073804150846</v>
+        <v>0.867932426035404</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.424839441935456</v>
+        <v>0.8221861034424875</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5069754719734192</v>
+        <v>0.3911600112915039</v>
       </c>
       <c r="G12" t="n">
-        <v>2.289757966995239</v>
+        <v>0.331238865852356</v>
       </c>
       <c r="H12" t="n">
-        <v>0.631725549697876</v>
+        <v>0.1985330581665039</v>
       </c>
       <c r="I12" t="n">
-        <v>1.509507060050964</v>
+        <v>0.2687896192073822</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_22</t>
+          <t>model_5_2_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5436025834112871</v>
+        <v>0.6551814428890996</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.770603091619948</v>
+        <v>0.5931200972065234</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1560473602402095</v>
+        <v>0.8624971885499081</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.454108616467243</v>
+        <v>0.815346314290913</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5050974488258362</v>
+        <v>0.3816125690937042</v>
       </c>
       <c r="G13" t="n">
-        <v>2.21461033821106</v>
+        <v>0.3435060977935791</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7549856901168823</v>
+        <v>0.2067036926746368</v>
       </c>
       <c r="I13" t="n">
-        <v>1.527727723121643</v>
+        <v>0.2791289091110229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_17</t>
+          <t>model_5_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5470560713697979</v>
+        <v>0.661735935290281</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.899623305651304</v>
+        <v>0.574306628325205</v>
       </c>
       <c r="D14" t="n">
-        <v>0.114505634419879</v>
+        <v>0.8539052255516685</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.384987259189714</v>
+        <v>0.8057630921668743</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5012754797935486</v>
+        <v>0.3743586242198944</v>
       </c>
       <c r="G14" t="n">
-        <v>2.290388584136963</v>
+        <v>0.3593892753124237</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5782942771911621</v>
+        <v>0.2196197062730789</v>
       </c>
       <c r="I14" t="n">
-        <v>1.484698295593262</v>
+        <v>0.2936152517795563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_6</t>
+          <t>model_5_2_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5472842598700455</v>
+        <v>0.6692032622201899</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.569012731565611</v>
+        <v>0.5599281123825547</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5158609066893741</v>
+        <v>0.8478726150355698</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.021703114987787</v>
+        <v>0.798688096261066</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5010229349136353</v>
+        <v>0.366094559431076</v>
       </c>
       <c r="G15" t="n">
-        <v>2.096209287643433</v>
+        <v>0.3715282678604126</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3161791265010834</v>
+        <v>0.2286883592605591</v>
       </c>
       <c r="I15" t="n">
-        <v>1.258547306060791</v>
+        <v>0.3043100833892822</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_23</t>
+          <t>model_5_2_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5480013272083182</v>
+        <v>0.6764394974631465</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.719175242493102</v>
+        <v>0.5458626798353738</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1725735798076571</v>
+        <v>0.8425946874958261</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.436579806541864</v>
+        <v>0.7920600233237433</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5002293586730957</v>
+        <v>0.3580861389636993</v>
       </c>
       <c r="G16" t="n">
-        <v>2.184405088424683</v>
+        <v>0.3834029138088226</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7657784819602966</v>
+        <v>0.2366224825382233</v>
       </c>
       <c r="I16" t="n">
-        <v>1.516815543174744</v>
+        <v>0.3143292963504791</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_24</t>
+          <t>model_5_2_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5483999086215929</v>
+        <v>0.6831406092900443</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.694542266546746</v>
+        <v>0.5307153039017063</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2096085692595342</v>
+        <v>0.8368854193734198</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.44255998904075</v>
+        <v>0.7849093409791503</v>
       </c>
       <c r="F17" t="n">
-        <v>0.499788224697113</v>
+        <v>0.3506700098514557</v>
       </c>
       <c r="G17" t="n">
-        <v>2.169937133789062</v>
+        <v>0.3961910009384155</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7899651527404785</v>
+        <v>0.2452050596475601</v>
       </c>
       <c r="I17" t="n">
-        <v>1.520538330078125</v>
+        <v>0.3251384794712067</v>
       </c>
     </row>
     <row r="18">
@@ -978,276 +978,276 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5526954762723432</v>
+        <v>0.6898243966625583</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.90093262567671</v>
+        <v>0.5157521822073151</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2036709872718622</v>
+        <v>0.8315369589109818</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.341617896424294</v>
+        <v>0.7779816057238651</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4950343668460846</v>
+        <v>0.3432729840278625</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291157722473145</v>
+        <v>0.408823549747467</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5200625658035278</v>
+        <v>0.2532452344894409</v>
       </c>
       <c r="I18" t="n">
-        <v>1.457700252532959</v>
+        <v>0.3356106579303741</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_15</t>
+          <t>model_5_2_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5603421382650779</v>
+        <v>0.6959900100521925</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.879156585862563</v>
+        <v>0.5006328177481074</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2955461264035004</v>
+        <v>0.8269468693806176</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.285382208577791</v>
+        <v>0.7713631739279082</v>
       </c>
       <c r="F19" t="n">
-        <v>0.486571729183197</v>
+        <v>0.3364494740962982</v>
       </c>
       <c r="G19" t="n">
-        <v>2.278367519378662</v>
+        <v>0.4215879440307617</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4600611925125122</v>
+        <v>0.260145366191864</v>
       </c>
       <c r="I19" t="n">
-        <v>1.42269241809845</v>
+        <v>0.3456153869628906</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_14</t>
+          <t>model_5_2_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5666055714264147</v>
+        <v>0.7011182497844446</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.875684476811326</v>
+        <v>0.4833495003981907</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3885577349977377</v>
+        <v>0.8208935719139676</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.237731671122832</v>
+        <v>0.7634197694521644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4796399474143982</v>
+        <v>0.3307740390300751</v>
       </c>
       <c r="G20" t="n">
-        <v>2.276328086853027</v>
+        <v>0.4361792802810669</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3993176519870758</v>
+        <v>0.2692450881004333</v>
       </c>
       <c r="I20" t="n">
-        <v>1.393029093742371</v>
+        <v>0.3576228618621826</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_13</t>
+          <t>model_5_2_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5720492607785017</v>
+        <v>0.7059720544492836</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.846724852187085</v>
+        <v>0.4658009814497532</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448781902200596</v>
+        <v>0.8154456666350283</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.193536558570431</v>
+        <v>0.7556820923333235</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4736153781414032</v>
+        <v>0.3254022896289825</v>
       </c>
       <c r="G21" t="n">
-        <v>2.259319305419922</v>
+        <v>0.4509945511817932</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3599867522716522</v>
+        <v>0.277434766292572</v>
       </c>
       <c r="I21" t="n">
-        <v>1.365516901016235</v>
+        <v>0.3693193793296814</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_12</t>
+          <t>model_5_2_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5786777678690188</v>
+        <v>0.7118482871427082</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.809399000668357</v>
+        <v>0.4572063423307237</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5158870074762063</v>
+        <v>0.8110951474436624</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.141762019550095</v>
+        <v>0.7511046741788743</v>
       </c>
       <c r="F22" t="n">
-        <v>0.466279536485672</v>
+        <v>0.318899005651474</v>
       </c>
       <c r="G22" t="n">
-        <v>2.237396478652954</v>
+        <v>0.4582505226135254</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3161620795726776</v>
+        <v>0.2839747667312622</v>
       </c>
       <c r="I22" t="n">
-        <v>1.333286285400391</v>
+        <v>0.3762387931346893</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_11</t>
+          <t>model_5_2_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5822057702119072</v>
+        <v>0.7165270575771494</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.781742492277525</v>
+        <v>0.442927899471549</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5566639367799083</v>
+        <v>0.8064725871704768</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.107817959621118</v>
+        <v>0.7447196246840894</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4623751640319824</v>
+        <v>0.3137210011482239</v>
       </c>
       <c r="G23" t="n">
-        <v>2.221153020858765</v>
+        <v>0.4703050255775452</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2895317077636719</v>
+        <v>0.2909237146377563</v>
       </c>
       <c r="I23" t="n">
-        <v>1.312155485153198</v>
+        <v>0.3858906626701355</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_10</t>
+          <t>model_5_2_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5849344070855316</v>
+        <v>0.7207970040506883</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.747157159704511</v>
+        <v>0.427482650221722</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5804826115156199</v>
+        <v>0.8016065161270935</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.078781793676641</v>
+        <v>0.7378754025132591</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4593552947044373</v>
+        <v>0.3089954555034637</v>
       </c>
       <c r="G24" t="n">
-        <v>2.200839757919312</v>
+        <v>0.4833446145057678</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2739763259887695</v>
+        <v>0.2982387244701385</v>
       </c>
       <c r="I24" t="n">
-        <v>1.294079780578613</v>
+        <v>0.3962366580963135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_9</t>
+          <t>model_5_2_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5861776333889346</v>
+        <v>0.7253019911840048</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.705538486995984</v>
+        <v>0.4154215902552625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5842147398418931</v>
+        <v>0.7973530556015965</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.05615323323166</v>
+        <v>0.7323183953290837</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4579794704914093</v>
+        <v>0.3040097653865814</v>
       </c>
       <c r="G25" t="n">
-        <v>2.176395893096924</v>
+        <v>0.4935270547866821</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2715389728546143</v>
+        <v>0.304632842540741</v>
       </c>
       <c r="I25" t="n">
-        <v>1.279993176460266</v>
+        <v>0.4046368002891541</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_2_8</t>
+          <t>model_5_2_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.586923420083986</v>
+        <v>0.7288922873632264</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.661821410887091</v>
+        <v>0.3982287815679891</v>
       </c>
       <c r="D26" t="n">
-        <v>0.580039189066365</v>
+        <v>0.7931465355561511</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.036377551745076</v>
+        <v>0.7252678475529202</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4571540653705597</v>
+        <v>0.3000363707542419</v>
       </c>
       <c r="G26" t="n">
-        <v>2.150719165802002</v>
+        <v>0.5080419778823853</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2742659151554108</v>
+        <v>0.3109563589096069</v>
       </c>
       <c r="I26" t="n">
-        <v>1.267682433128357</v>
+        <v>0.4152946472167969</v>
       </c>
     </row>
   </sheetData>
